--- a/performance.xlsx
+++ b/performance.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Mesh size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +38,34 @@
   </si>
   <si>
     <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,8 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -755,7 +785,727 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Speed-up</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$4:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.78125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1877551020408159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.200242718446601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.220306513409962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.661276095266098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.11310413552566</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.886600040791352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-934C-462A-B2EB-E82D22AC420C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$7:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.6130952380952381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5891677675033034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.43717277486911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2714392244593586</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8351374756440784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.9904047121413644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5725812421348735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-934C-462A-B2EB-E82D22AC420C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$10:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.901716068642745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.557327467693154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2823802962452628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5500797988102715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4961243558050867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5778175313059037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-934C-462A-B2EB-E82D22AC420C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$1:$U$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$13:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.2258454106280201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6688475088072465</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3304347826086964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9056798032374305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-934C-462A-B2EB-E82D22AC420C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1508514575"/>
+        <c:axId val="1508517071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1508514575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508517071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1508517071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1508514575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1298,20 +2048,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1325,6 +2578,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1596,15 +2879,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1626,8 +2909,32 @@
       <c r="G1">
         <v>343000</v>
       </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>10000</v>
+      </c>
+      <c r="P1">
+        <v>20000</v>
+      </c>
+      <c r="Q1">
+        <v>50000</v>
+      </c>
+      <c r="R1">
+        <v>125000</v>
+      </c>
+      <c r="S1">
+        <v>216000</v>
+      </c>
+      <c r="T1">
+        <v>250000</v>
+      </c>
+      <c r="U1">
+        <v>300000</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1649,8 +2956,35 @@
       <c r="G2">
         <v>6.12</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>384</v>
+      </c>
+      <c r="P2">
+        <v>490</v>
+      </c>
+      <c r="Q2">
+        <v>824</v>
+      </c>
+      <c r="R2">
+        <v>2088</v>
+      </c>
+      <c r="S2">
+        <v>3401</v>
+      </c>
+      <c r="T2">
+        <v>4014</v>
+      </c>
+      <c r="U2">
+        <v>4903</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1672,8 +3006,33 @@
       <c r="G3">
         <v>4.7699999999999996</v>
       </c>
+      <c r="M3" s="1"/>
+      <c r="N3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>1068</v>
+      </c>
+      <c r="P3">
+        <v>3522</v>
+      </c>
+      <c r="Q3">
+        <v>9229</v>
+      </c>
+      <c r="R3">
+        <v>21340</v>
+      </c>
+      <c r="S3">
+        <v>43061</v>
+      </c>
+      <c r="T3">
+        <v>48622</v>
+      </c>
+      <c r="U3">
+        <v>63183</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1695,8 +3054,40 @@
       <c r="G4">
         <v>3.71</v>
       </c>
+      <c r="M4" s="1"/>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <f>O3/O2</f>
+        <v>2.78125</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:U4" si="0">P3/P2</f>
+        <v>7.1877551020408159</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>11.200242718446601</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>10.220306513409962</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>12.661276095266098</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>12.11310413552566</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>12.886600040791352</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1718,8 +3109,282 @@
       <c r="G5">
         <v>3.24</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>504</v>
+      </c>
+      <c r="P5">
+        <v>757</v>
+      </c>
+      <c r="Q5">
+        <v>1910</v>
+      </c>
+      <c r="R5">
+        <v>5364</v>
+      </c>
+      <c r="S5">
+        <v>9238</v>
+      </c>
+      <c r="T5">
+        <v>10526</v>
+      </c>
+      <c r="U5">
+        <v>13509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M6" s="1"/>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>2829</v>
+      </c>
+      <c r="P6">
+        <v>7259</v>
+      </c>
+      <c r="Q6">
+        <v>19935</v>
+      </c>
+      <c r="R6">
+        <v>49732</v>
+      </c>
+      <c r="S6">
+        <v>90857</v>
+      </c>
+      <c r="T6">
+        <v>105159</v>
+      </c>
+      <c r="U6">
+        <v>129316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M7" s="1"/>
+      <c r="N7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <f>O6/O5</f>
+        <v>5.6130952380952381</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:U7" si="1">P6/P5</f>
+        <v>9.5891677675033034</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>10.43717277486911</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>9.2714392244593586</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>9.8351374756440784</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>9.9904047121413644</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>9.5725812421348735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>690</v>
+      </c>
+      <c r="P8">
+        <v>1282</v>
+      </c>
+      <c r="Q8">
+        <v>3637</v>
+      </c>
+      <c r="R8">
+        <v>11612</v>
+      </c>
+      <c r="S8">
+        <v>20677</v>
+      </c>
+      <c r="T8">
+        <v>23867</v>
+      </c>
+      <c r="U8">
+        <v>28509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M9" s="1"/>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>5589</v>
+      </c>
+      <c r="P9">
+        <v>13976</v>
+      </c>
+      <c r="Q9">
+        <v>38397</v>
+      </c>
+      <c r="R9">
+        <v>96175</v>
+      </c>
+      <c r="S9">
+        <v>176790</v>
+      </c>
+      <c r="T9">
+        <v>202777</v>
+      </c>
+      <c r="U9">
+        <v>244545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M10" s="1"/>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <f>O9/O8</f>
+        <v>8.1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:U10" si="2">P9/P8</f>
+        <v>10.901716068642745</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>10.557327467693154</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>8.2823802962452628</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>8.5500797988102715</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>8.4961243558050867</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>8.5778175313059037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>828</v>
+      </c>
+      <c r="P11">
+        <v>1987</v>
+      </c>
+      <c r="Q11">
+        <v>5635</v>
+      </c>
+      <c r="R11">
+        <v>17483</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M12" s="1"/>
+      <c r="N12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>7639</v>
+      </c>
+      <c r="P12">
+        <v>19212</v>
+      </c>
+      <c r="Q12">
+        <v>52577</v>
+      </c>
+      <c r="R12">
+        <v>138215</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M13" s="1"/>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <f>O12/O11</f>
+        <v>9.2258454106280201</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:U13" si="3">P12/P11</f>
+        <v>9.6688475088072465</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>9.3304347826086964</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>7.9056798032374305</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="M11:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
